--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D6575-DC2C-4CC4-99CA-ADA2D41D74AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071F896-BD64-4630-B6B0-891B022C7D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="-14235" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,18 +727,18 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="9" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="9" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <v>01_coal</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -937,7 +937,7 @@
         <v>01_01_coking_coal</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -988,7 +988,7 @@
         <v>01_05_lignite</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>01_x_thermal_coal</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>02_coal_products</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>03_peat</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>04_peat_products</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>06_crude_oil_and_ngl</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>06_01_crude_oil</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>06_02_natural_gas_liquids</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2419,7 +2419,9 @@
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2441,7 +2443,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_x_other_petroleum_products</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="4"/>
@@ -2464,7 +2466,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>08_gas</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>08_01_natural_gas</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>08_02_lng</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>08_03_gas_works_gas</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>15_solid_biomass</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>15_01_fuelwood_and_woodwaste</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>15_02_bagasse</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>15_03_charcoal</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>15_04_black_liquor</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>15_05_other_biomass</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>16_others</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>16_01_biogas</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>16_02_industrial_waste</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>16_03_municipal_solid_waste_renewable</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>16_09_other_sources</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>19_total</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>20_total_renewables</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071F896-BD64-4630-B6B0-891B022C7D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0E469-6CBB-4557-AAB9-B3A0B329F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14235" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="14565" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,8 +727,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,7 +3435,9 @@
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>18</v>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_01_biogas</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="12"/>
@@ -3542,7 +3544,9 @@
       <c r="F56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>18</v>
@@ -3569,7 +3573,7 @@
       </c>
       <c r="P56" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_03_municipal_solid_waste_renewable</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="15"/>
@@ -3593,7 +3597,9 @@
       <c r="F57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>18</v>
@@ -3620,7 +3626,7 @@
       </c>
       <c r="P57" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="15"/>
@@ -3948,7 +3954,9 @@
       <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>18</v>
       </c>
@@ -3970,7 +3978,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_x_hydrogen</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="12"/>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071F896-BD64-4630-B6B0-891B022C7D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D6575-DC2C-4CC4-99CA-ADA2D41D74AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14235" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,18 +727,18 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="9" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="9" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <v>01_coal</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -937,7 +937,7 @@
         <v>01_01_coking_coal</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -988,7 +988,7 @@
         <v>01_05_lignite</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>01_x_thermal_coal</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>02_coal_products</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>03_peat</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>04_peat_products</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>06_crude_oil_and_ngl</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>06_01_crude_oil</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>06_02_natural_gas_liquids</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2419,9 +2419,7 @@
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2443,7 +2441,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v>07_x_other_petroleum_products</v>
+        <v/>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="4"/>
@@ -2466,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2525,7 +2523,7 @@
         <v>08_gas</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>08_01_natural_gas</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>08_02_lng</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2672,7 @@
         <v>08_03_gas_works_gas</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2721,7 +2719,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2768,7 +2766,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3017,7 +3015,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -3121,7 +3119,7 @@
         <v>15_solid_biomass</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>15_01_fuelwood_and_woodwaste</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>15_02_bagasse</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>15_03_charcoal</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>15_04_black_liquor</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>15_05_other_biomass</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>16_others</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>16_01_biogas</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>16_02_industrial_waste</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>16_03_municipal_solid_waste_renewable</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3684,7 +3682,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3737,7 +3735,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3834,7 +3832,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>16_09_other_sources</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4024,7 +4022,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4080,7 +4078,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4131,7 +4129,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4192,7 +4190,7 @@
         <v>19_total</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>20_total_renewables</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>85</v>
       </c>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D6575-DC2C-4CC4-99CA-ADA2D41D74AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AB70B-B817-426A-ADF8-66D39EEBFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="14565" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,18 +727,18 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="9" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="9" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <v>01_coal</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -937,7 +937,7 @@
         <v>01_01_coking_coal</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -988,7 +988,7 @@
         <v>01_05_lignite</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>01_x_thermal_coal</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>02_coal_products</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>03_peat</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>04_peat_products</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>06_crude_oil_and_ngl</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>06_01_crude_oil</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>06_02_natural_gas_liquids</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2419,7 +2419,9 @@
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2441,7 +2443,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_x_other_petroleum_products</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="4"/>
@@ -2464,7 +2466,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>08_gas</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>08_01_natural_gas</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>08_02_lng</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>08_03_gas_works_gas</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>15_solid_biomass</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>15_01_fuelwood_and_woodwaste</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>15_02_bagasse</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>15_03_charcoal</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>15_04_black_liquor</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>15_05_other_biomass</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>16_others</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +3435,9 @@
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>18</v>
@@ -3453,7 +3457,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_01_biogas</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="12"/>
@@ -3476,7 +3480,7 @@
         <v>16_01_biogas</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>16_02_industrial_waste</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>16_03_municipal_solid_waste_renewable</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>16_09_other_sources</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>19_total</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>20_total_renewables</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AB70B-B817-426A-ADF8-66D39EEBFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD643F-63AA-4287-A6EB-C87E08DC75F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,8 +727,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +3950,9 @@
       <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>18</v>
       </c>
@@ -3972,7 +3974,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_x_hydrogen</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="12"/>
@@ -4323,6 +4325,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4533,16 +4544,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4559,12 +4569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD643F-63AA-4287-A6EB-C87E08DC75F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76E437-3CDF-4F48-8DFC-16D15B8B6143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -728,7 +728,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,7 +3488,9 @@
         <v>18</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>18</v>
@@ -3508,7 +3510,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_02_industrial_waste</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="12"/>
@@ -3539,7 +3541,9 @@
         <v>18</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>18</v>
@@ -3559,7 +3563,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_03_municipal_solid_waste_renewable</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="12"/>
@@ -3590,7 +3594,9 @@
         <v>18</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>18</v>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="12"/>
@@ -3643,7 +3649,9 @@
       <c r="C58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>18</v>
@@ -3663,7 +3671,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_05_biogasoline</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="12"/>
@@ -3696,7 +3704,9 @@
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>18</v>
@@ -3716,7 +3726,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_06_biodiesel</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="12"/>
@@ -3747,7 +3757,9 @@
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
@@ -3764,7 +3776,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_07_bio_jet_kerosene</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="12"/>
@@ -3795,7 +3807,9 @@
         <v>18</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3813,7 +3827,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_08_other_liquid_biofuels</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="12"/>
@@ -3844,7 +3858,9 @@
         <v>18</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3864,7 +3880,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_09_other_sources</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="12"/>
@@ -3897,7 +3913,9 @@
       <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>18</v>
       </c>
@@ -3917,7 +3935,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_x_ammonia</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="12"/>
@@ -4005,7 +4023,9 @@
       <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4017,7 +4037,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>16_x_efuel</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="15"/>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76E437-3CDF-4F48-8DFC-16D15B8B6143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B60249-D135-41D2-BED3-59043119E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,8 +727,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,9 @@
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -914,7 +916,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01_01_coking_coal</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -943,7 +945,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -965,7 +969,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01_05_lignite</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -996,7 +1000,9 @@
         <v>18</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01_x_thermal_coal</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1900,7 +1906,9 @@
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -1920,7 +1928,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_01_motor_gasoline</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="4"/>
@@ -1951,7 +1959,9 @@
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -1968,7 +1978,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_02_aviation_gasoline</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="4"/>
@@ -1999,7 +2009,9 @@
         <v>18</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2017,7 +2029,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_03_naphtha</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="4"/>
@@ -2105,7 +2117,9 @@
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>18</v>
@@ -2127,7 +2141,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_07_gas_diesel_oil</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="4"/>
@@ -2160,7 +2174,9 @@
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2182,7 +2198,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_08_fuel_oil</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="4"/>
@@ -2268,7 +2284,9 @@
         <v>18</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2286,7 +2304,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_10_refinery_gas_not_liquefied</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="4"/>
@@ -2317,7 +2335,9 @@
         <v>18</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2335,7 +2355,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_11_ethane</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="4"/>
@@ -2366,7 +2386,9 @@
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>18</v>
@@ -2386,7 +2408,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07_x_jet_fuel</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="4"/>
@@ -3127,7 +3149,9 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>18</v>
@@ -3147,7 +3171,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>15_01_fuelwood_and_woodwaste</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="12"/>
@@ -3176,7 +3200,9 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>18</v>
@@ -3198,7 +3224,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>15_02_bagasse</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="12"/>
@@ -3227,7 +3253,9 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
         <v>18</v>
@@ -3247,7 +3275,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>15_03_charcoal</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="12"/>
@@ -3276,7 +3304,9 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3294,7 +3324,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>15_04_black_liquor</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="12"/>
@@ -3323,7 +3353,9 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>18</v>
@@ -3343,7 +3375,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>15_05_other_biomass</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="12"/>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B60249-D135-41D2-BED3-59043119E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B097E2-3702-4B2F-ADC0-343B3A24AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,8 +727,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2557,9 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>18</v>
@@ -2579,7 +2581,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>08_01_natural_gas</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="12"/>
@@ -2608,7 +2610,9 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2626,7 +2630,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>08_02_lng</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="12"/>
@@ -2655,7 +2659,9 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2673,7 +2679,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>08_03_gas_works_gas</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="12"/>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B097E2-3702-4B2F-ADC0-343B3A24AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A992C20-6D2E-456F-9B11-EB2A13A5CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -726,9 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623EB71-E35B-4C48-97D3-AA7B8940C635}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,9 +3008,7 @@
       <c r="G45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="9"/>
@@ -3038,7 +3036,7 @@
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="15"/>
-        <v>13_tide_wave_ocean</v>
+        <v/>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="16"/>
@@ -4383,15 +4381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4602,15 +4591,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4627,4 +4617,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A992C20-6D2E-456F-9B11-EB2A13A5CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F4845-A77F-4F5E-8EF5-32C3A57CC730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="87">
   <si>
     <t>FUELS</t>
   </si>
@@ -727,8 +727,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2908,9 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -2926,7 +2928,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>12_01_of_which_photovoltaics</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="12"/>
@@ -2955,7 +2957,9 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -2973,7 +2977,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>12_x_other_solar</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="12"/>
@@ -4381,6 +4385,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4591,16 +4604,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4617,12 +4629,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F4845-A77F-4F5E-8EF5-32C3A57CC730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBA64B-10DF-4D69-99FB-5289E86A780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="88">
   <si>
     <t>FUELS</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>16_x_efuel</t>
+  </si>
+  <si>
+    <t>17_x_green_electricity</t>
   </si>
 </sst>
 </file>
@@ -428,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623EB71-E35B-4C48-97D3-AA7B8940C635}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2530,7 @@
         <v>08_gas</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" ref="N35:N66" si="12">IF(OR(E35="a",E35="?"),$A35,"")</f>
+        <f t="shared" ref="N35:N64" si="12">IF(OR(E35="a",E35="?"),$A35,"")</f>
         <v>08_gas</v>
       </c>
       <c r="O35" t="str">
@@ -4124,7 +4127,7 @@
         <v>17_electricity</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(OR(E66="a",E66="?"),$A66,"")</f>
         <v>17_electricity</v>
       </c>
       <c r="O66" t="str">
@@ -4146,119 +4149,104 @@
     </row>
     <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:R70" si="17">IF(OR(B67="a",B67="?"),$A67,"")</f>
-        <v>18_heat</v>
+        <f t="shared" ref="K67" si="17">IF(OR(B67="a",B67="?"),$A67,"")</f>
+        <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L67" si="18">IF(OR(C67="a",C67="?"),$A67,"")</f>
         <v/>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="17"/>
-        <v>18_heat</v>
+        <f t="shared" ref="M67" si="19">IF(OR(D67="a",D67="?"),$A67,"")</f>
+        <v/>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(OR(E67="a",E67="?"),$A67,"")</f>
+        <v>17_x_green_electricity</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="17"/>
-        <v>18_heat</v>
+        <f t="shared" ref="O67" si="20">IF(OR(F67="a",F67="?"),$A67,"")</f>
+        <v/>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="17"/>
-        <v>18_heat</v>
+        <f t="shared" ref="P67" si="21">IF(OR(G67="a",G67="?"),$A67,"")</f>
+        <v/>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="Q67" si="22">IF(OR(H67="a",H67="?"),$A67,"")</f>
         <v/>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="R67" si="23">IF(OR(I67="a",I67="?"),$A67,"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H68" s="1"/>
       <c r="K68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" ref="K68:R71" si="24">IF(OR(B68="a",B68="?"),$A68,"")</f>
+        <v>18_heat</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v>18_heat</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v>18_heat</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v>18_heat</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="17"/>
-        <v>19_total</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>18</v>
@@ -4285,96 +4273,157 @@
         <v>18</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="17"/>
-        <v>20_total_renewables</v>
+        <f t="shared" si="24"/>
+        <v>19_total</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="24"/>
+        <v>20_total_renewables</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="17"/>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="17"/>
+      <c r="L71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="M70" t="str">
-        <f t="shared" si="17"/>
+      <c r="M71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="17"/>
+      <c r="N71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="O70" t="str">
-        <f t="shared" si="17"/>
+      <c r="O71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="P70" t="str">
-        <f t="shared" si="17"/>
+      <c r="P71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Q71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
-      <c r="R70" t="str">
-        <f t="shared" si="17"/>
+      <c r="R71" t="str">
+        <f t="shared" si="24"/>
         <v>21_modern_renewables</v>
       </c>
     </row>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBA64B-10DF-4D69-99FB-5289E86A780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F36E9E-61E3-4508-A134-7478206503B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
   <si>
     <t>FUELS</t>
   </si>
@@ -730,8 +730,8 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2530,7 @@
         <v>08_gas</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" ref="N35:N64" si="12">IF(OR(E35="a",E35="?"),$A35,"")</f>
+        <f t="shared" ref="N35:N65" si="12">IF(OR(E35="a",E35="?"),$A35,"")</f>
         <v>08_gas</v>
       </c>
       <c r="O35" t="str">
@@ -4069,7 +4069,9 @@
       <c r="D65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4080,6 +4082,10 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="11"/>
+        <v>16_x_efuel</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="12"/>
         <v>16_x_efuel</v>
       </c>
       <c r="Q65" t="str">

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F36E9E-61E3-4508-A134-7478206503B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E0BCB0-EEBF-4210-AF29-1E1BB293B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -730,8 +730,8 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S66" sqref="S66"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E0BCB0-EEBF-4210-AF29-1E1BB293B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CDAD9-70B9-4A8F-BF83-CA589E1ADECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="88">
   <si>
     <t>FUELS</t>
   </si>
@@ -730,8 +730,8 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C37:C38"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2612,9 @@
         <v>53</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +2631,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>08_02_lng</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="11"/>
@@ -4440,15 +4442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4659,15 +4652,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4684,4 +4678,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CDAD9-70B9-4A8F-BF83-CA589E1ADECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E0BCB0-EEBF-4210-AF29-1E1BB293B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
   <si>
     <t>FUELS</t>
   </si>
@@ -730,8 +730,8 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,9 +2612,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +2629,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="10"/>
-        <v>08_02_lng</v>
+        <v/>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="11"/>
@@ -4442,6 +4440,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4652,16 +4659,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4678,12 +4684,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E0BCB0-EEBF-4210-AF29-1E1BB293B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305343B-5500-441D-8AB6-4DBAC915A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>17_x_green_electricity</t>
+  </si>
+  <si>
+    <t>16_others_unallocated</t>
+  </si>
+  <si>
+    <t>15_solid_biomass_unallocated</t>
   </si>
 </sst>
 </file>
@@ -727,11 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623EB71-E35B-4C48-97D3-AA7B8940C635}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C37:C38"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,6 +4439,40 @@
         <v>21_modern_renewables</v>
       </c>
     </row>
+    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4440,15 +4480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4659,15 +4690,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4684,4 +4716,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305343B-5500-441D-8AB6-4DBAC915A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB4B545-E588-4517-8014-66812DE4E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -736,8 +736,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,7 +2618,9 @@
         <v>53</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +2637,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>08_02_lng</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="11"/>
@@ -4480,6 +4482,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4690,16 +4701,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4716,12 +4726,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB4B545-E588-4517-8014-66812DE4E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77598BE6-F0CD-4998-B422-723B249A279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -736,8 +736,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,9 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1031,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>01_x_thermal_coal</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="3"/>
@@ -4482,15 +4484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4701,15 +4694,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B566DB4-C485-4D42-9094-B1E2943EFED1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4726,4 +4720,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA43F71-C302-40B8-A148-F26BCA219CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77598BE6-F0CD-4998-B422-723B249A279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D2171-8CA0-4448-8907-BC0F5F7A2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
   <sheets>
     <sheet name="fuels_by_sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -735,19 +735,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623EB71-E35B-4C48-97D3-AA7B8940C635}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="9" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="9" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
         <v>01_coal</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -948,7 +948,7 @@
         <v>01_01_coking_coal</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>01_05_lignite</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>01_x_thermal_coal</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>02_coal_products</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>03_peat</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>04_peat_products</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>06_crude_oil_and_ngl</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>06_01_crude_oil</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>06_02_natural_gas_liquids</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>08_gas</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>08_01_natural_gas</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2666,29 +2666,35 @@
         <v>08_02_lng</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>08_03_gas_works_gas</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>08_03_gas_works_gas</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="11"/>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>08_03_gas_works_gas</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="15"/>
@@ -2715,7 +2721,7 @@
         <v>08_03_gas_works_gas</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>15_solid_biomass</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>15_01_fuelwood_and_woodwaste</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>15_02_bagasse</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>15_03_charcoal</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>15_04_black_liquor</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>15_05_other_biomass</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>16_others</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3495,7 +3501,9 @@
       <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>18</v>
@@ -3522,7 +3530,7 @@
       </c>
       <c r="P54" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_01_biogas</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="15"/>
@@ -3533,7 +3541,7 @@
         <v>16_01_biogas</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3586,7 +3594,7 @@
         <v>16_02_industrial_waste</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>16_03_municipal_solid_waste_renewable</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>16_04_municipal_solid_waste_nonrenewable</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>16_09_other_sources</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4163,7 +4171,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>19_total</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>20_total_renewables</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>21_modern_renewables</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -4460,7 +4468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>89</v>
       </c>

--- a/config/fuels_used_by_modellers.xlsx
+++ b/config/fuels_used_by_modellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D2171-8CA0-4448-8907-BC0F5F7A2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823C3CE2-0785-419D-97AE-A9504C7B82D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -736,8 +736,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3387,7 +3387,9 @@
       <c r="F52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>18</v>
@@ -3414,7 +3416,7 @@
       </c>
       <c r="P52" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>15_05_other_biomass</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="15"/>
@@ -3556,7 +3558,9 @@
       <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>18</v>
@@ -3583,7 +3587,7 @@
       </c>
       <c r="P55" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_02_industrial_waste</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="15"/>
@@ -3924,7 +3928,9 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +3959,7 @@
       </c>
       <c r="P62" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_09_other_sources</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="15"/>
